--- a/documentatie/urenregistratie.xlsx
+++ b/documentatie/urenregistratie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mediacollegeamsterdam-my.sharepoint.com/personal/31924_ma-web_nl/Documents/Wulfies/Wulfies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mediacollegeamsterdam-my.sharepoint.com/personal/31924_ma-web_nl/Documents/Wulfies/Wulfies/documentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BFFC6E6-EFBF-4550-8FFA-ED2F489C6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{5BFFC6E6-EFBF-4550-8FFA-ED2F489C6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72359E17-82C5-452C-9532-F66815BEA10F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F03074-4EC3-4E53-B1EE-37C0A508CC32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F03074-4EC3-4E53-B1EE-37C0A508CC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t xml:space="preserve">Datum: </t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>plaasten op zazzle.</t>
+  </si>
+  <si>
+    <t>23-Mar</t>
+  </si>
+  <si>
+    <t>Wij zijn begonnen met het maken van de navbar en van de footer</t>
+  </si>
+  <si>
+    <t>wij wouden een responsive footer en navbar voor op de telefoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zodat we tijdens het gesprek op 24-Mar zouden kunnen laten zien </t>
+  </si>
+  <si>
+    <t>hoe het eruit gaat zien</t>
+  </si>
+  <si>
+    <t>24-Mar</t>
   </si>
 </sst>
 </file>
@@ -515,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8675C138-9C3A-48E9-ACE8-BA7EB5713741}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +756,39 @@
         <v>42</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentatie/urenregistratie.xlsx
+++ b/documentatie/urenregistratie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mediacollegeamsterdam-my.sharepoint.com/personal/31924_ma-web_nl/Documents/Wulfies/Wulfies/documentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5BFFC6E6-EFBF-4550-8FFA-ED2F489C6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72359E17-82C5-452C-9532-F66815BEA10F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{5BFFC6E6-EFBF-4550-8FFA-ED2F489C6B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F44AC447-A40B-451A-B574-DB7A748050FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F03074-4EC3-4E53-B1EE-37C0A508CC32}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B7F03074-4EC3-4E53-B1EE-37C0A508CC32}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t xml:space="preserve">Datum: </t>
   </si>
@@ -182,6 +182,81 @@
   </si>
   <si>
     <t>24-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We zijn verder bezig geweest met het maken van een dropdown en </t>
+  </si>
+  <si>
+    <t xml:space="preserve">responsive navbar in de dropdown menu willen wij al de beperkingen </t>
+  </si>
+  <si>
+    <t>als knoppen vastellen om zo voor de bezoeker duidelijk te laten zien dat</t>
+  </si>
+  <si>
+    <t>ze kunnen kijken naar de verschillende beperkingen.</t>
+  </si>
+  <si>
+    <t>30-Mar</t>
+  </si>
+  <si>
+    <t>We zijn nu begonnen met onze eigen taken Zarko is bezig geweest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met de videopagina Jesse is bezig geweest met de homepagina </t>
+  </si>
+  <si>
+    <t>en Sem is bezig geweest met de Over Ons pagina.</t>
+  </si>
+  <si>
+    <t>31-Mar</t>
+  </si>
+  <si>
+    <t>Wij hebben de pagina's waar wij mee bezig waren laten zien aan onze</t>
+  </si>
+  <si>
+    <t>opdrachtgever en uitgelegd wat we ermee gaan doen en wat de bedoeling</t>
+  </si>
+  <si>
+    <t>van die pagina's zijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wij zijn  bezig geweest met het afronden van de Home,Video en Over </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ons pagina's </t>
+  </si>
+  <si>
+    <t>Wij hebben vandaag de afgeronden pagina's laten zien aan Ellen</t>
+  </si>
+  <si>
+    <t>en vervolgens zijn we gaan overleggen om te kijken met welke pagina's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we nu aan de slag gaan. </t>
+  </si>
+  <si>
+    <t>Wij hebben vandaag als klas te horen gekregen dat we een kleine</t>
+  </si>
+  <si>
+    <t>beurs gaan hebben in de MA-lounge en zo ons werk kunnen presenteren</t>
+  </si>
+  <si>
+    <t>aan de mensen die de beurs bezoeken. We zijn bezig geweest met het onderzoek</t>
+  </si>
+  <si>
+    <t>naar de beperkingen die wij gaan aanbieden op onze website.</t>
+  </si>
+  <si>
+    <t>Zarko is bezig geweest met de ADD pagina. Jesse is bezig geweest met</t>
+  </si>
+  <si>
+    <t>de ADHD pagina en Sem is bezig geweest met de Autisme pagina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hebben alles afgerond en kijken er naar uit om volgende periode </t>
+  </si>
+  <si>
+    <t>verder te werken aan dit project en het helemaal te optimaliseren.</t>
   </si>
 </sst>
 </file>
@@ -217,8 +292,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -533,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8675C138-9C3A-48E9-ACE8-BA7EB5713741}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +865,180 @@
         <v>48</v>
       </c>
     </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44657</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
